--- a/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/ImportGeneralExcel.xlsx
+++ b/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/ImportGeneralExcel.xlsx
@@ -12,24 +12,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Chuyển Vị Trí</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+  <si>
+    <t>Danh Sách Người Phụ Thuộc</t>
   </si>
   <si>
     <t>Employee_ID</t>
   </si>
   <si>
-    <t>EffectiveDate</t>
-  </si>
-  <si>
-    <t>TypeOfTransfer</t>
-  </si>
-  <si>
-    <t>TransferCode</t>
-  </si>
-  <si>
-    <t>AssignType</t>
+    <t>RelatedName</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>RelatedType</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>GKS_So</t>
+  </si>
+  <si>
+    <t>GKS_QuyenSo</t>
+  </si>
+  <si>
+    <t>GKS_TinhTP</t>
+  </si>
+  <si>
+    <t>GKS_QuanHuyen</t>
+  </si>
+  <si>
+    <t>GKS_PhuongXa</t>
+  </si>
+  <si>
+    <t>MaSoThue</t>
+  </si>
+  <si>
+    <t>QuocTich</t>
+  </si>
+  <si>
+    <t>ID_Number</t>
+  </si>
+  <si>
+    <t>ID_date</t>
+  </si>
+  <si>
+    <t>ID_place</t>
+  </si>
+  <si>
+    <t>DependFromMonth</t>
+  </si>
+  <si>
+    <t>DependToMonth</t>
+  </si>
+  <si>
+    <t>isDaNopGiay</t>
   </si>
   <si>
     <t>Remark</t>
@@ -38,16 +86,64 @@
     <t>Mã nhân viên</t>
   </si>
   <si>
-    <t>Mã chuyển</t>
-  </si>
-  <si>
-    <t>Ngày Hiệu Lực</t>
-  </si>
-  <si>
-    <t>Loại chuyển</t>
-  </si>
-  <si>
-    <t>Assignment type</t>
+    <t>Tên người thân</t>
+  </si>
+  <si>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Quan Hệ</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Nghề Nghiệp</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>GKS Số</t>
+  </si>
+  <si>
+    <t>GKS Quyển số</t>
+  </si>
+  <si>
+    <t>GKS Tỉnh TP</t>
+  </si>
+  <si>
+    <t>GKS Quận huyện</t>
+  </si>
+  <si>
+    <t>GKS Phường xã</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Quốc tịch</t>
+  </si>
+  <si>
+    <t>Số CCCD</t>
+  </si>
+  <si>
+    <t>Ngày cấp</t>
+  </si>
+  <si>
+    <t>Cấp tại (TV)</t>
+  </si>
+  <si>
+    <t>Phụ thuộc từ tháng</t>
+  </si>
+  <si>
+    <t>Phụ thuộc đến tháng</t>
+  </si>
+  <si>
+    <t>Đã nộp giấy</t>
   </si>
   <si>
     <t>Ghi chú</t>
@@ -121,18 +217,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.675158909389" customWidth="1"/>
-    <col min="2" max="2" width="11.3384780883789" customWidth="1"/>
-    <col min="3" max="3" width="14.2695595877511" customWidth="1"/>
-    <col min="4" max="4" width="12.0546231951032" customWidth="1"/>
-    <col min="5" max="5" width="16.4046968732561" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.3049022129604" customWidth="1"/>
+    <col min="3" max="3" width="10.7154312133789" customWidth="1"/>
+    <col min="4" max="4" width="9.21050207955497" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.966174534389" customWidth="1"/>
+    <col min="7" max="7" width="10.1394446236747" customWidth="1"/>
+    <col min="8" max="8" width="9.29541615077427" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.8910260881696" customWidth="1"/>
+    <col min="11" max="11" width="12.0955461774554" customWidth="1"/>
+    <col min="12" max="12" width="16.4087894984654" customWidth="1"/>
+    <col min="13" max="13" width="15.2721633911133" customWidth="1"/>
+    <col min="14" max="14" width="11.5123988560268" customWidth="1"/>
+    <col min="15" max="15" width="9.94199371337891" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.55834415980748" customWidth="1"/>
+    <col min="18" max="18" width="11.7855573381696" customWidth="1"/>
+    <col min="19" max="19" width="18.7669546944754" customWidth="1"/>
+    <col min="20" max="20" width="20.0938698904855" customWidth="1"/>
+    <col min="21" max="21" width="11.9492470877511" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -159,10 +271,10 @@
       <c r="A5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -171,39 +283,135 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="D6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>6</v>
+      <c r="H6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
